--- a/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,98</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>1,82; 8,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,34</t>
+          <t>6,46; 15,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -5,36</t>
+          <t>5,84; 14,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -1,01</t>
+          <t>0,42; 11,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>16,21; 137,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,53</t>
+          <t>35,68; 126,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -6,25</t>
+          <t>41,26; 142,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -1,17</t>
+          <t>9,27; 90,87</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,98</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>1,82; 8,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,34</t>
+          <t>6,46; 15,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -5,36</t>
+          <t>5,84; 14,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -1,01</t>
+          <t>0,42; 11,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>16,21; 137,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,53</t>
+          <t>35,68; 126,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -6,25</t>
+          <t>41,26; 142,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -1,17</t>
+          <t>9,27; 90,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,88</t>
+          <t>1,94; 9,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,44</t>
+          <t>6,19; 15,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,84; 14,12</t>
+          <t>5,9; 14,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,21; 137,27</t>
+          <t>18,86; 139,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,68; 126,74</t>
+          <t>36,56; 127,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,26; 142,64</t>
+          <t>42,45; 142,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,88</t>
+          <t>1,94; 9,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 15,44</t>
+          <t>6,19; 15,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 14,12</t>
+          <t>5,9; 14,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,21; 137,27</t>
+          <t>18,86; 139,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,68; 126,74</t>
+          <t>36,56; 127,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>41,26; 142,64</t>
+          <t>42,45; 142,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Barthel)</t>
+          <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,11</t>
+          <t>2,41; 9,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 15,54</t>
+          <t>6,34; 15,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,24</t>
+          <t>5,36; 13,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 11,13</t>
+          <t>1,01; 11,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,86; 139,52</t>
+          <t>23,43; 143,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,56; 127,15</t>
+          <t>35,77; 131,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,45; 142,03</t>
+          <t>38,08; 131,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 90,87</t>
+          <t>8,77; 91,96</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,11</t>
+          <t>2,41; 9,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 15,54</t>
+          <t>6,34; 15,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,24</t>
+          <t>5,36; 13,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 11,13</t>
+          <t>1,01; 11,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,86; 139,52</t>
+          <t>23,43; 143,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,56; 127,15</t>
+          <t>35,77; 131,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,45; 142,03</t>
+          <t>38,08; 131,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 90,87</t>
+          <t>8,77; 91,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>-3,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,31</t>
+          <t>-6,9; -0,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,81</t>
+          <t>-8,57; 1,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,81</t>
+          <t>-6,97; 0,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 11,25</t>
+          <t>-2,0; 5,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,43; 143,14</t>
+          <t>-7,06; -0,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,77; 131,4</t>
+          <t>-9,15; 1,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,08; 131,32</t>
+          <t>-7,28; 0,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 91,96</t>
+          <t>-2,13; 6,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>-15,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>-15,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>-19,88%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>-17,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>-19,58%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,31</t>
+          <t>-11,93; 0,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,81</t>
+          <t>-23,01; -7,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 13,81</t>
+          <t>-21,34; -7,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 11,25</t>
+          <t>-20,26; -10,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,43; 143,14</t>
+          <t>-13,69; 1,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,77; 131,4</t>
+          <t>-28,56; -10,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,08; 131,32</t>
+          <t>-25,9; -9,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 91,96</t>
+          <t>-24,99; -13,59</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-5,52</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-10,98</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-9,84</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-5,17</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-12,9%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-11,16%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-9,31; -2,41</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-15,81; -6,34</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-13,81; -5,36</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-10,89; 3,48</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; -2,66</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-17,81; -7,53</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-15,5; -6,25</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-12,37; 4,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Edad-trans_bre.xlsx
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,9; -0,54</t>
+          <t>-6,96; -0,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 1,19</t>
+          <t>-8,63; 0,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 0,84</t>
+          <t>-7,31; 0,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,92</t>
+          <t>-2,13; 5,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,06; -0,56</t>
+          <t>-7,17; -0,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 1,35</t>
+          <t>-9,26; 1,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,91</t>
+          <t>-7,61; 0,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,5</t>
+          <t>-2,25; 6,31</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 0,95</t>
+          <t>-12,15; 1,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -7,19</t>
+          <t>-22,68; -7,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,34; -7,26</t>
+          <t>-20,53; -6,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,26; -10,15</t>
+          <t>-19,9; -10,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 1,02</t>
+          <t>-13,8; 1,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -10,11</t>
+          <t>-28,64; -10,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-25,9; -9,44</t>
+          <t>-24,81; -8,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,99; -13,59</t>
+          <t>-24,79; -13,7</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,41</t>
+          <t>-9,12; -2,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -6,34</t>
+          <t>-15,71; -5,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -5,36</t>
+          <t>-14,35; -5,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 3,48</t>
+          <t>-10,76; 3,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -2,66</t>
+          <t>-9,75; -2,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,53</t>
+          <t>-17,86; -7,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,5; -6,25</t>
+          <t>-16,09; -6,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 4,07</t>
+          <t>-12,32; 3,89</t>
         </is>
       </c>
     </row>
